--- a/lemonade_analysis.xlsx
+++ b/lemonade_analysis.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -120,8 +120,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:G33" totalsRowShown="0">
-  <autoFilter ref="A1:G33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:G32" totalsRowShown="0">
+  <autoFilter ref="A1:G32"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Date" dataDxfId="0"/>
     <tableColumn id="2" name="Location"/>
@@ -432,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -612,22 +612,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>42557</v>
+        <v>42558</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="D8">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="E8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F8">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="G8" t="s">
         <v>8</v>
@@ -635,42 +635,45 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>42558</v>
+        <v>42559</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="D9">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="E9">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F9">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="G9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>42560</v>
+      </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="D10">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E10">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F10">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="G10" t="s">
         <v>8</v>
@@ -678,22 +681,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>42560</v>
+        <v>42561</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D11">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E11">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F11">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G11" t="s">
         <v>8</v>
@@ -701,22 +704,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>42561</v>
+        <v>42562</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="D12">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="E12">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F12">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G12" t="s">
         <v>8</v>
@@ -724,22 +727,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="C13">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="D13">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="E13">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F13">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="G13" t="s">
         <v>8</v>
@@ -747,19 +750,19 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>42563</v>
+        <v>42564</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
       <c r="C14">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="D14">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E14">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F14">
         <v>99</v>
@@ -770,22 +773,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>42564</v>
+        <v>42565</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
       <c r="C15">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D15">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E15">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F15">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="G15" t="s">
         <v>8</v>
@@ -793,45 +796,45 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>42565</v>
+        <v>42566</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
       <c r="C16">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="D16">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="E16">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F16">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>42566</v>
+        <v>42567</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
       <c r="C17">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="D17">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E17">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F17">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -839,22 +842,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>42567</v>
+        <v>42568</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="C18">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="D18">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="E18">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F18">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -862,22 +865,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>42568</v>
+        <v>42569</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C19">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="D19">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="E19">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F19">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -885,22 +888,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>42569</v>
+        <v>42570</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
       </c>
       <c r="C20">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D20">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E20">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F20">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -908,22 +911,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>42570</v>
+        <v>42571</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
       </c>
       <c r="C21">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="D21">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="E21">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F21">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -931,19 +934,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>42571</v>
+        <v>42572</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
       </c>
       <c r="C22">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D22">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E22">
-        <v>70</v>
+        <v>77</v>
+      </c>
+      <c r="F22">
+        <v>90</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -951,22 +957,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>42572</v>
+        <v>42573</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
       </c>
       <c r="C23">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="D23">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E23">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F23">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -974,22 +980,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>42573</v>
+        <v>42574</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
       </c>
       <c r="C24">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D24">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E24">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F24">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -997,19 +1003,19 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>42574</v>
+        <v>42575</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
       </c>
       <c r="C25">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D25">
         <v>82</v>
       </c>
       <c r="E25">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F25">
         <v>117</v>
@@ -1020,22 +1026,22 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>42575</v>
+        <v>42576</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
       </c>
       <c r="C26">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="D26">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E26">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F26">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1043,45 +1049,45 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>42576</v>
+        <v>42577</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
       </c>
       <c r="C27">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="D27">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="E27">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F27">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="G27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>42577</v>
+        <v>42578</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
       </c>
       <c r="C28">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="D28">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="E28">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F28">
-        <v>158</v>
+        <v>99</v>
       </c>
       <c r="G28" t="s">
         <v>11</v>
@@ -1089,22 +1095,22 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>42578</v>
+        <v>42579</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
       </c>
       <c r="C29">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D29">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E29">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F29">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="G29" t="s">
         <v>11</v>
@@ -1112,22 +1118,22 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>42579</v>
+        <v>42580</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
       </c>
       <c r="C30">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D30">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E30">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F30">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G30" t="s">
         <v>11</v>
@@ -1135,22 +1141,22 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>42580</v>
+        <v>42581</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C31">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D31">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E31">
+        <v>82</v>
+      </c>
+      <c r="F31">
         <v>81</v>
-      </c>
-      <c r="F31">
-        <v>95</v>
       </c>
       <c r="G31" t="s">
         <v>11</v>
@@ -1158,47 +1164,24 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>42581</v>
+        <v>42582</v>
       </c>
       <c r="B32" t="s">
         <v>9</v>
       </c>
       <c r="C32">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D32">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E32">
         <v>82</v>
       </c>
       <c r="F32">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="G32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
-        <v>42582</v>
-      </c>
-      <c r="B33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33">
-        <v>76</v>
-      </c>
-      <c r="D33">
-        <v>47</v>
-      </c>
-      <c r="E33">
-        <v>82</v>
-      </c>
-      <c r="F33">
-        <v>68</v>
-      </c>
-      <c r="G33" t="s">
         <v>11</v>
       </c>
     </row>

--- a/lemonade_analysis.xlsx
+++ b/lemonade_analysis.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -50,16 +50,13 @@
     <t>Park</t>
   </si>
   <si>
-    <t>0.25</t>
-  </si>
-  <si>
     <t>Beach</t>
   </si>
   <si>
-    <t>0.5</t>
+    <t>Sales</t>
   </si>
   <si>
-    <t>0.35</t>
+    <t>Revenue</t>
   </si>
 </sst>
 </file>
@@ -95,14 +92,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
@@ -120,16 +134,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:G32" totalsRowShown="0">
-  <autoFilter ref="A1:G32"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="Date" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:I33" totalsRowCount="1">
+  <autoFilter ref="A1:I32"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="Date" dataDxfId="5" totalsRowDxfId="2"/>
     <tableColumn id="2" name="Location"/>
     <tableColumn id="3" name="Lemon"/>
     <tableColumn id="4" name="Orange"/>
     <tableColumn id="5" name="Temperature"/>
     <tableColumn id="6" name="Leaflets"/>
     <tableColumn id="7" name="Price"/>
+    <tableColumn id="8" name="Sales" dataDxfId="4" totalsRowDxfId="1">
+      <calculatedColumnFormula>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" name="Revenue" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="0">
+      <calculatedColumnFormula>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</calculatedColumnFormula>
+      <totalsRowFormula>SUM(Tableau1[Revenue])</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -432,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -449,7 +470,7 @@
     <col min="7" max="7" width="6.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -471,8 +492,14 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>42552</v>
       </c>
@@ -491,11 +518,19 @@
       <c r="F2">
         <v>90</v>
       </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G2" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="H2">
+        <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
+        <v>164</v>
+      </c>
+      <c r="I2">
+        <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>42553</v>
       </c>
@@ -514,11 +549,19 @@
       <c r="F3">
         <v>90</v>
       </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G3">
+        <v>0.25</v>
+      </c>
+      <c r="H3">
+        <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
+        <v>165</v>
+      </c>
+      <c r="I3">
+        <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
+        <v>41.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>42554</v>
       </c>
@@ -537,16 +580,24 @@
       <c r="F4">
         <v>104</v>
       </c>
-      <c r="G4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G4">
+        <v>0.25</v>
+      </c>
+      <c r="H4">
+        <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
+        <v>187</v>
+      </c>
+      <c r="I4">
+        <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
+        <v>46.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>42555</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>134</v>
@@ -560,16 +611,24 @@
       <c r="F5">
         <v>98</v>
       </c>
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G5">
+        <v>0.25</v>
+      </c>
+      <c r="H5">
+        <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
+        <v>233</v>
+      </c>
+      <c r="I5">
+        <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
+        <v>58.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>42556</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>159</v>
@@ -583,16 +642,24 @@
       <c r="F6">
         <v>135</v>
       </c>
-      <c r="G6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G6">
+        <v>0.25</v>
+      </c>
+      <c r="H6">
+        <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
+        <v>277</v>
+      </c>
+      <c r="I6">
+        <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
+        <v>69.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>42557</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>103</v>
@@ -606,16 +673,24 @@
       <c r="F7">
         <v>90</v>
       </c>
-      <c r="G7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G7">
+        <v>0.25</v>
+      </c>
+      <c r="H7">
+        <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
+        <v>172</v>
+      </c>
+      <c r="I7">
+        <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>42558</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>143</v>
@@ -629,16 +704,24 @@
       <c r="F8">
         <v>135</v>
       </c>
-      <c r="G8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G8">
+        <v>0.25</v>
+      </c>
+      <c r="H8">
+        <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
+        <v>244</v>
+      </c>
+      <c r="I8">
+        <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>42559</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>123</v>
@@ -652,16 +735,24 @@
       <c r="F9">
         <v>113</v>
       </c>
-      <c r="G9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G9">
+        <v>0.25</v>
+      </c>
+      <c r="H9">
+        <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
+        <v>209</v>
+      </c>
+      <c r="I9">
+        <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
+        <v>52.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>42560</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>134</v>
@@ -675,16 +766,24 @@
       <c r="F10">
         <v>126</v>
       </c>
-      <c r="G10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G10">
+        <v>0.25</v>
+      </c>
+      <c r="H10">
+        <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
+        <v>229</v>
+      </c>
+      <c r="I10">
+        <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
+        <v>57.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>42561</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>140</v>
@@ -698,16 +797,24 @@
       <c r="F11">
         <v>131</v>
       </c>
-      <c r="G11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G11">
+        <v>0.25</v>
+      </c>
+      <c r="H11">
+        <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
+        <v>238</v>
+      </c>
+      <c r="I11">
+        <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>42562</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <v>162</v>
@@ -721,16 +828,24 @@
       <c r="F12">
         <v>135</v>
       </c>
-      <c r="G12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G12">
+        <v>0.25</v>
+      </c>
+      <c r="H12">
+        <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
+        <v>282</v>
+      </c>
+      <c r="I12">
+        <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>42563</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>130</v>
@@ -744,16 +859,24 @@
       <c r="F13">
         <v>99</v>
       </c>
-      <c r="G13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G13">
+        <v>0.25</v>
+      </c>
+      <c r="H13">
+        <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
+        <v>225</v>
+      </c>
+      <c r="I13">
+        <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
+        <v>56.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>42564</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14">
         <v>109</v>
@@ -767,16 +890,24 @@
       <c r="F14">
         <v>99</v>
       </c>
-      <c r="G14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G14">
+        <v>0.25</v>
+      </c>
+      <c r="H14">
+        <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
+        <v>184</v>
+      </c>
+      <c r="I14">
+        <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>42565</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15">
         <v>122</v>
@@ -790,16 +921,24 @@
       <c r="F15">
         <v>113</v>
       </c>
-      <c r="G15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G15">
+        <v>0.25</v>
+      </c>
+      <c r="H15">
+        <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
+        <v>207</v>
+      </c>
+      <c r="I15">
+        <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
+        <v>51.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>42566</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16">
         <v>98</v>
@@ -813,16 +952,24 @@
       <c r="F16">
         <v>108</v>
       </c>
-      <c r="G16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G16">
+        <v>0.5</v>
+      </c>
+      <c r="H16">
+        <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
+        <v>160</v>
+      </c>
+      <c r="I16">
+        <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>42567</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17">
         <v>81</v>
@@ -836,16 +983,24 @@
       <c r="F17">
         <v>90</v>
       </c>
-      <c r="G17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G17">
+        <v>0.5</v>
+      </c>
+      <c r="H17">
+        <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
+        <v>131</v>
+      </c>
+      <c r="I17">
+        <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
+        <v>65.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>42568</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18">
         <v>115</v>
@@ -859,11 +1014,19 @@
       <c r="F18">
         <v>126</v>
       </c>
-      <c r="G18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G18">
+        <v>0.5</v>
+      </c>
+      <c r="H18">
+        <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
+        <v>191</v>
+      </c>
+      <c r="I18">
+        <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
+        <v>95.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>42569</v>
       </c>
@@ -882,11 +1045,19 @@
       <c r="F19">
         <v>122</v>
       </c>
-      <c r="G19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G19">
+        <v>0.5</v>
+      </c>
+      <c r="H19">
+        <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
+        <v>223</v>
+      </c>
+      <c r="I19">
+        <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
+        <v>111.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>42570</v>
       </c>
@@ -905,11 +1076,19 @@
       <c r="F20">
         <v>113</v>
       </c>
-      <c r="G20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G20">
+        <v>0.5</v>
+      </c>
+      <c r="H20">
+        <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
+        <v>207</v>
+      </c>
+      <c r="I20">
+        <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
+        <v>103.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>42571</v>
       </c>
@@ -928,11 +1107,19 @@
       <c r="F21">
         <v>109</v>
       </c>
-      <c r="G21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G21">
+        <v>0.5</v>
+      </c>
+      <c r="H21">
+        <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
+        <v>113</v>
+      </c>
+      <c r="I21">
+        <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>42572</v>
       </c>
@@ -951,11 +1138,19 @@
       <c r="F22">
         <v>90</v>
       </c>
-      <c r="G22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G22">
+        <v>0.5</v>
+      </c>
+      <c r="H22">
+        <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
+        <v>133</v>
+      </c>
+      <c r="I22">
+        <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>42573</v>
       </c>
@@ -974,11 +1169,19 @@
       <c r="F23">
         <v>108</v>
       </c>
-      <c r="G23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G23">
+        <v>0.5</v>
+      </c>
+      <c r="H23">
+        <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
+        <v>187</v>
+      </c>
+      <c r="I23">
+        <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>42574</v>
       </c>
@@ -997,11 +1200,19 @@
       <c r="F24">
         <v>117</v>
       </c>
-      <c r="G24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G24">
+        <v>0.5</v>
+      </c>
+      <c r="H24">
+        <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
+        <v>202</v>
+      </c>
+      <c r="I24">
+        <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>42575</v>
       </c>
@@ -1020,11 +1231,19 @@
       <c r="F25">
         <v>117</v>
       </c>
-      <c r="G25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G25">
+        <v>0.5</v>
+      </c>
+      <c r="H25">
+        <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
+        <v>203</v>
+      </c>
+      <c r="I25">
+        <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
+        <v>101.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>42576</v>
       </c>
@@ -1043,11 +1262,19 @@
       <c r="F26">
         <v>135</v>
       </c>
-      <c r="G26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G26">
+        <v>0.5</v>
+      </c>
+      <c r="H26">
+        <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
+        <v>269</v>
+      </c>
+      <c r="I26">
+        <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
+        <v>134.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>42577</v>
       </c>
@@ -1066,11 +1293,19 @@
       <c r="F27">
         <v>158</v>
       </c>
-      <c r="G27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G27">
+        <v>0.35</v>
+      </c>
+      <c r="H27">
+        <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
+        <v>305</v>
+      </c>
+      <c r="I27">
+        <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
+        <v>106.75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>42578</v>
       </c>
@@ -1089,11 +1324,19 @@
       <c r="F28">
         <v>99</v>
       </c>
-      <c r="G28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G28">
+        <v>0.35</v>
+      </c>
+      <c r="H28">
+        <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
+        <v>172</v>
+      </c>
+      <c r="I28">
+        <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
+        <v>60.199999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>42579</v>
       </c>
@@ -1112,11 +1355,19 @@
       <c r="F29">
         <v>90</v>
       </c>
-      <c r="G29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G29">
+        <v>0.35</v>
+      </c>
+      <c r="H29">
+        <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
+        <v>159</v>
+      </c>
+      <c r="I29">
+        <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
+        <v>55.65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>42580</v>
       </c>
@@ -1135,16 +1386,24 @@
       <c r="F30">
         <v>95</v>
       </c>
-      <c r="G30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G30">
+        <v>0.35</v>
+      </c>
+      <c r="H30">
+        <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
+        <v>166</v>
+      </c>
+      <c r="I30">
+        <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
+        <v>58.099999999999994</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>42581</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C31">
         <v>88</v>
@@ -1158,16 +1417,24 @@
       <c r="F31">
         <v>81</v>
       </c>
-      <c r="G31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G31">
+        <v>0.35</v>
+      </c>
+      <c r="H31">
+        <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
+        <v>145</v>
+      </c>
+      <c r="I31">
+        <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
+        <v>50.75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>42582</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C32">
         <v>76</v>
@@ -1181,14 +1448,31 @@
       <c r="F32">
         <v>68</v>
       </c>
-      <c r="G32" t="s">
-        <v>11</v>
+      <c r="G32">
+        <v>0.35</v>
+      </c>
+      <c r="H32">
+        <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
+        <v>123</v>
+      </c>
+      <c r="I32">
+        <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
+        <v>43.05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="1"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3">
+        <f>SUM(Tableau1[Revenue])</f>
+        <v>2138</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/lemonade_analysis.xlsx
+++ b/lemonade_analysis.xlsx
@@ -101,7 +101,37 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -137,17 +167,17 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:I33" totalsRowCount="1">
   <autoFilter ref="A1:I32"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Date" dataDxfId="5" totalsRowDxfId="2"/>
+    <tableColumn id="1" name="Date" dataDxfId="8" totalsRowDxfId="5"/>
     <tableColumn id="2" name="Location"/>
     <tableColumn id="3" name="Lemon"/>
     <tableColumn id="4" name="Orange"/>
     <tableColumn id="5" name="Temperature"/>
     <tableColumn id="6" name="Leaflets"/>
     <tableColumn id="7" name="Price"/>
-    <tableColumn id="8" name="Sales" dataDxfId="4" totalsRowDxfId="1">
+    <tableColumn id="8" name="Sales" dataDxfId="7" totalsRowDxfId="4">
       <calculatedColumnFormula>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Revenue" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="0">
+    <tableColumn id="9" name="Revenue" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="3">
       <calculatedColumnFormula>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(Tableau1[Revenue])</totalsRowFormula>
     </tableColumn>
@@ -455,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1469,6 +1499,10 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E2:E32">
+    <cfRule type="top10" dxfId="0" priority="2" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="1" priority="1" percent="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/lemonade_analysis.xlsx
+++ b/lemonade_analysis.xlsx
@@ -14,6 +14,11 @@
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Feuil1!$I$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Feuil1!$I$2:$I$32</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Feuil1!$I$2:$I$32</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -63,6 +68,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -95,13 +103,25 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -123,29 +143,7 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
@@ -163,21 +161,3004 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Revenue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Feuil1!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>42552</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42553</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42554</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42555</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42556</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42557</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42558</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42559</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42560</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42561</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42562</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42563</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42564</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42565</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42566</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42567</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42568</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42569</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42570</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42571</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42572</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42573</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42574</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42575</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42576</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42577</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42578</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42580</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42581</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42582</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$I$2:$I$33</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ##0.00\ "€"</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>51.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>65.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>95.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>111.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>103.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>56.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>66.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>93.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>101.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>134.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>106.75</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>60.199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>55.65</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>58.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>50.75</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6575-4202-97A7-607C00F82FCD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1193339007"/>
+        <c:axId val="1202265567"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1193339007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1202265567"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1202265567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#\ ##0.00\ &quot;€&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1193339007"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sales VS Leaflets</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$F$2:$F$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$H$2:$H$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>123</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D16A-4E8B-A3C9-87BE471F72CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1200405583"/>
+        <c:axId val="1202262111"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1200405583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Leaflets</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1202262111"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1202262111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Sales</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1200405583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Revenu count by range</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>Revenu count by range</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{1951FDDC-B89E-44F9-87B8-BF3DB32C975B}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:v>Revenue</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r">
+              <cx:binCount val="10"/>
+            </cx:binning>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>288925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>288925</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4A01E3F-E7BE-4D67-8411-C5E98B49D185}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>288925</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>288925</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graphique 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9631B70-13C4-462B-8371-699F88EF0CF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>22224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>126999</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="15" name="Graphique 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D39930DF-5344-4C62-9B28-2080AEF4D08A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6505574" y="6099174"/>
+              <a:ext cx="8232775" cy="3552825"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100"/>
+                <a:t>Ce graphique n’est pas disponible dans votre version d’Excel.
+La modification de cette forme ou l’enregistrement de ce classeur dans un autre format de fichier endommagera le graphique de façon irréparable.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:I33" totalsRowCount="1">
   <autoFilter ref="A1:I32"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Date" dataDxfId="8" totalsRowDxfId="5"/>
+    <tableColumn id="1" name="Date" dataDxfId="7" totalsRowDxfId="6"/>
     <tableColumn id="2" name="Location"/>
     <tableColumn id="3" name="Lemon"/>
     <tableColumn id="4" name="Orange"/>
     <tableColumn id="5" name="Temperature"/>
     <tableColumn id="6" name="Leaflets"/>
-    <tableColumn id="7" name="Price"/>
-    <tableColumn id="8" name="Sales" dataDxfId="7" totalsRowDxfId="4">
+    <tableColumn id="7" name="Price" dataDxfId="1"/>
+    <tableColumn id="8" name="Sales" dataDxfId="0">
       <calculatedColumnFormula>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Revenue" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="3">
+    <tableColumn id="9" name="Revenue" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
       <calculatedColumnFormula>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(Tableau1[Revenue])</totalsRowFormula>
     </tableColumn>
@@ -485,8 +3466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="I35" workbookViewId="0">
+      <selection activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -548,14 +3529,14 @@
       <c r="F2">
         <v>90</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="3">
         <v>0.25</v>
       </c>
       <c r="H2">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>164</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>41</v>
       </c>
@@ -579,14 +3560,14 @@
       <c r="F3">
         <v>90</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>0.25</v>
       </c>
       <c r="H3">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>165</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>41.25</v>
       </c>
@@ -610,14 +3591,14 @@
       <c r="F4">
         <v>104</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>0.25</v>
       </c>
       <c r="H4">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>187</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>46.75</v>
       </c>
@@ -641,14 +3622,14 @@
       <c r="F5">
         <v>98</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>0.25</v>
       </c>
       <c r="H5">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>233</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>58.25</v>
       </c>
@@ -672,14 +3653,14 @@
       <c r="F6">
         <v>135</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>0.25</v>
       </c>
       <c r="H6">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>277</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>69.25</v>
       </c>
@@ -703,14 +3684,14 @@
       <c r="F7">
         <v>90</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>0.25</v>
       </c>
       <c r="H7">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>172</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>43</v>
       </c>
@@ -734,14 +3715,14 @@
       <c r="F8">
         <v>135</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>0.25</v>
       </c>
       <c r="H8">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>244</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>61</v>
       </c>
@@ -765,14 +3746,14 @@
       <c r="F9">
         <v>113</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>0.25</v>
       </c>
       <c r="H9">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>209</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>52.25</v>
       </c>
@@ -796,14 +3777,14 @@
       <c r="F10">
         <v>126</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>0.25</v>
       </c>
       <c r="H10">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>229</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>57.25</v>
       </c>
@@ -827,14 +3808,14 @@
       <c r="F11">
         <v>131</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="3">
         <v>0.25</v>
       </c>
       <c r="H11">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>238</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="3">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>59.5</v>
       </c>
@@ -858,14 +3839,14 @@
       <c r="F12">
         <v>135</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
         <v>0.25</v>
       </c>
       <c r="H12">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>282</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="3">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>70.5</v>
       </c>
@@ -889,14 +3870,14 @@
       <c r="F13">
         <v>99</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="3">
         <v>0.25</v>
       </c>
       <c r="H13">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>225</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="3">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>56.25</v>
       </c>
@@ -920,14 +3901,14 @@
       <c r="F14">
         <v>99</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="3">
         <v>0.25</v>
       </c>
       <c r="H14">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>184</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="3">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>46</v>
       </c>
@@ -951,14 +3932,14 @@
       <c r="F15">
         <v>113</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="3">
         <v>0.25</v>
       </c>
       <c r="H15">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>207</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="3">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>51.75</v>
       </c>
@@ -982,14 +3963,14 @@
       <c r="F16">
         <v>108</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="3">
         <v>0.5</v>
       </c>
       <c r="H16">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>160</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="3">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>80</v>
       </c>
@@ -1013,14 +3994,14 @@
       <c r="F17">
         <v>90</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="3">
         <v>0.5</v>
       </c>
       <c r="H17">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>131</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="3">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>65.5</v>
       </c>
@@ -1044,14 +4025,14 @@
       <c r="F18">
         <v>126</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="3">
         <v>0.5</v>
       </c>
       <c r="H18">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>191</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="3">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>95.5</v>
       </c>
@@ -1075,14 +4056,14 @@
       <c r="F19">
         <v>122</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="3">
         <v>0.5</v>
       </c>
       <c r="H19">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>223</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="3">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>111.5</v>
       </c>
@@ -1106,14 +4087,14 @@
       <c r="F20">
         <v>113</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="3">
         <v>0.5</v>
       </c>
       <c r="H20">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>207</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="3">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>103.5</v>
       </c>
@@ -1137,14 +4118,14 @@
       <c r="F21">
         <v>109</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="3">
         <v>0.5</v>
       </c>
       <c r="H21">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>113</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="3">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>56.5</v>
       </c>
@@ -1168,14 +4149,14 @@
       <c r="F22">
         <v>90</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="3">
         <v>0.5</v>
       </c>
       <c r="H22">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>133</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="3">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>66.5</v>
       </c>
@@ -1199,14 +4180,14 @@
       <c r="F23">
         <v>108</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="3">
         <v>0.5</v>
       </c>
       <c r="H23">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>187</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="3">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>93.5</v>
       </c>
@@ -1230,14 +4211,14 @@
       <c r="F24">
         <v>117</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="3">
         <v>0.5</v>
       </c>
       <c r="H24">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>202</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="3">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>101</v>
       </c>
@@ -1261,14 +4242,14 @@
       <c r="F25">
         <v>117</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="3">
         <v>0.5</v>
       </c>
       <c r="H25">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>203</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="3">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>101.5</v>
       </c>
@@ -1292,14 +4273,14 @@
       <c r="F26">
         <v>135</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="3">
         <v>0.5</v>
       </c>
       <c r="H26">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>269</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="3">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>134.5</v>
       </c>
@@ -1323,14 +4304,14 @@
       <c r="F27">
         <v>158</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="3">
         <v>0.35</v>
       </c>
       <c r="H27">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>305</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="3">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>106.75</v>
       </c>
@@ -1354,14 +4335,14 @@
       <c r="F28">
         <v>99</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="3">
         <v>0.35</v>
       </c>
       <c r="H28">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>172</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="3">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>60.199999999999996</v>
       </c>
@@ -1385,14 +4366,14 @@
       <c r="F29">
         <v>90</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="3">
         <v>0.35</v>
       </c>
       <c r="H29">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>159</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="3">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>55.65</v>
       </c>
@@ -1416,14 +4397,14 @@
       <c r="F30">
         <v>95</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="3">
         <v>0.35</v>
       </c>
       <c r="H30">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>166</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="3">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>58.099999999999994</v>
       </c>
@@ -1447,14 +4428,14 @@
       <c r="F31">
         <v>81</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="3">
         <v>0.35</v>
       </c>
       <c r="H31">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>145</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="3">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>50.75</v>
       </c>
@@ -1478,21 +4459,21 @@
       <c r="F32">
         <v>68</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="3">
         <v>0.35</v>
       </c>
       <c r="H32">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>123</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="3">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>43.05</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
-      <c r="H33" s="3"/>
+      <c r="H33" s="2"/>
       <c r="I33" s="3">
         <f>SUM(Tableau1[Revenue])</f>
         <v>2138</v>
@@ -1500,13 +4481,14 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E32">
-    <cfRule type="top10" dxfId="0" priority="2" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="1" priority="1" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="4" priority="2" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="5" priority="1" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/lemonade_analysis.xlsx
+++ b/lemonade_analysis.xlsx
@@ -9,15 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Dataset" sheetId="1" r:id="rId1"/>
+    <sheet name="Descriptive stats" sheetId="3" r:id="rId2"/>
+    <sheet name="Correlation" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Feuil1!$I$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Feuil1!$I$2:$I$32</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Feuil1!$I$2:$I$32</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Dataset!$I$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Dataset!$I$2:$I$32</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Dataset!$I$2:$I$32</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -63,6 +65,45 @@
   <si>
     <t>Revenue</t>
   </si>
+  <si>
+    <t>Moyenne</t>
+  </si>
+  <si>
+    <t>Erreur-type</t>
+  </si>
+  <si>
+    <t>Médiane</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Écart-type</t>
+  </si>
+  <si>
+    <t>Variance de l'échantillon</t>
+  </si>
+  <si>
+    <t>Kurstosis (Coefficient d'aplatissement)</t>
+  </si>
+  <si>
+    <t>Coefficient d'asymétrie</t>
+  </si>
+  <si>
+    <t>Plage</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Somme</t>
+  </si>
+  <si>
+    <t>Nombre d'échantillons</t>
+  </si>
 </sst>
 </file>
 
@@ -71,8 +112,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -88,7 +137,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -96,14 +145,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -216,7 +290,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$I$1</c:f>
+              <c:f>Dataset!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -253,7 +327,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$A$2:$A$33</c:f>
+              <c:f>Dataset!$A$2:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="31"/>
@@ -355,7 +429,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$I$2:$I$33</c:f>
+              <c:f>Dataset!$I$2:$I$33</c:f>
               <c:numCache>
                 <c:formatCode>#\ ##0.00\ "€"</c:formatCode>
                 <c:ptCount val="31"/>
@@ -736,7 +810,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$H$1</c:f>
+              <c:f>Dataset!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -769,7 +843,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$F$2:$F$33</c:f>
+              <c:f>Dataset!$F$2:$F$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -871,7 +945,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$H$2:$H$33</c:f>
+              <c:f>Dataset!$H$2:$H$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -3466,8 +3540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I35" workbookViewId="0">
-      <selection activeCell="T33" sqref="T33"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3529,14 +3603,14 @@
       <c r="F2">
         <v>90</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="6">
         <v>0.25</v>
       </c>
       <c r="H2">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>164</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="6">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>41</v>
       </c>
@@ -3560,14 +3634,14 @@
       <c r="F3">
         <v>90</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="6">
         <v>0.25</v>
       </c>
       <c r="H3">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>165</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="6">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>41.25</v>
       </c>
@@ -3591,14 +3665,14 @@
       <c r="F4">
         <v>104</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="6">
         <v>0.25</v>
       </c>
       <c r="H4">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>187</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="6">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>46.75</v>
       </c>
@@ -3622,14 +3696,14 @@
       <c r="F5">
         <v>98</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="6">
         <v>0.25</v>
       </c>
       <c r="H5">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>233</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="6">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>58.25</v>
       </c>
@@ -3653,14 +3727,14 @@
       <c r="F6">
         <v>135</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="6">
         <v>0.25</v>
       </c>
       <c r="H6">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>277</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="6">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>69.25</v>
       </c>
@@ -3684,14 +3758,14 @@
       <c r="F7">
         <v>90</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="6">
         <v>0.25</v>
       </c>
       <c r="H7">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>172</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="6">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>43</v>
       </c>
@@ -3715,14 +3789,14 @@
       <c r="F8">
         <v>135</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="6">
         <v>0.25</v>
       </c>
       <c r="H8">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>244</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="6">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>61</v>
       </c>
@@ -3746,14 +3820,14 @@
       <c r="F9">
         <v>113</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="6">
         <v>0.25</v>
       </c>
       <c r="H9">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>209</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="6">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>52.25</v>
       </c>
@@ -3777,14 +3851,14 @@
       <c r="F10">
         <v>126</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="6">
         <v>0.25</v>
       </c>
       <c r="H10">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>229</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="6">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>57.25</v>
       </c>
@@ -3808,14 +3882,14 @@
       <c r="F11">
         <v>131</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="6">
         <v>0.25</v>
       </c>
       <c r="H11">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>238</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="6">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>59.5</v>
       </c>
@@ -3839,14 +3913,14 @@
       <c r="F12">
         <v>135</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="6">
         <v>0.25</v>
       </c>
       <c r="H12">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>282</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="6">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>70.5</v>
       </c>
@@ -3870,14 +3944,14 @@
       <c r="F13">
         <v>99</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="6">
         <v>0.25</v>
       </c>
       <c r="H13">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>225</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="6">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>56.25</v>
       </c>
@@ -3901,14 +3975,14 @@
       <c r="F14">
         <v>99</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="6">
         <v>0.25</v>
       </c>
       <c r="H14">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>184</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="6">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>46</v>
       </c>
@@ -3932,14 +4006,14 @@
       <c r="F15">
         <v>113</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="6">
         <v>0.25</v>
       </c>
       <c r="H15">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>207</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="6">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>51.75</v>
       </c>
@@ -3963,14 +4037,14 @@
       <c r="F16">
         <v>108</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="6">
         <v>0.5</v>
       </c>
       <c r="H16">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>160</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="6">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>80</v>
       </c>
@@ -3994,14 +4068,14 @@
       <c r="F17">
         <v>90</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="6">
         <v>0.5</v>
       </c>
       <c r="H17">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>131</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="6">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>65.5</v>
       </c>
@@ -4025,14 +4099,14 @@
       <c r="F18">
         <v>126</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="6">
         <v>0.5</v>
       </c>
       <c r="H18">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>191</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="6">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>95.5</v>
       </c>
@@ -4056,14 +4130,14 @@
       <c r="F19">
         <v>122</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="6">
         <v>0.5</v>
       </c>
       <c r="H19">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>223</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="6">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>111.5</v>
       </c>
@@ -4087,14 +4161,14 @@
       <c r="F20">
         <v>113</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="6">
         <v>0.5</v>
       </c>
       <c r="H20">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>207</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="6">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>103.5</v>
       </c>
@@ -4118,14 +4192,14 @@
       <c r="F21">
         <v>109</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="6">
         <v>0.5</v>
       </c>
       <c r="H21">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>113</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="6">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>56.5</v>
       </c>
@@ -4149,14 +4223,14 @@
       <c r="F22">
         <v>90</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="6">
         <v>0.5</v>
       </c>
       <c r="H22">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>133</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="6">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>66.5</v>
       </c>
@@ -4180,14 +4254,14 @@
       <c r="F23">
         <v>108</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="6">
         <v>0.5</v>
       </c>
       <c r="H23">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>187</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="6">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>93.5</v>
       </c>
@@ -4211,14 +4285,14 @@
       <c r="F24">
         <v>117</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="6">
         <v>0.5</v>
       </c>
       <c r="H24">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>202</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="6">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>101</v>
       </c>
@@ -4242,14 +4316,14 @@
       <c r="F25">
         <v>117</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="6">
         <v>0.5</v>
       </c>
       <c r="H25">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>203</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="6">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>101.5</v>
       </c>
@@ -4273,14 +4347,14 @@
       <c r="F26">
         <v>135</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="6">
         <v>0.5</v>
       </c>
       <c r="H26">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>269</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="6">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>134.5</v>
       </c>
@@ -4304,14 +4378,14 @@
       <c r="F27">
         <v>158</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="6">
         <v>0.35</v>
       </c>
       <c r="H27">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>305</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="6">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>106.75</v>
       </c>
@@ -4335,14 +4409,14 @@
       <c r="F28">
         <v>99</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="6">
         <v>0.35</v>
       </c>
       <c r="H28">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>172</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="6">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>60.199999999999996</v>
       </c>
@@ -4366,14 +4440,14 @@
       <c r="F29">
         <v>90</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="6">
         <v>0.35</v>
       </c>
       <c r="H29">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>159</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="6">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>55.65</v>
       </c>
@@ -4397,14 +4471,14 @@
       <c r="F30">
         <v>95</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="6">
         <v>0.35</v>
       </c>
       <c r="H30">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>166</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="6">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>58.099999999999994</v>
       </c>
@@ -4428,14 +4502,14 @@
       <c r="F31">
         <v>81</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="6">
         <v>0.35</v>
       </c>
       <c r="H31">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>145</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I31" s="6">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>50.75</v>
       </c>
@@ -4459,14 +4533,14 @@
       <c r="F32">
         <v>68</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="6">
         <v>0.35</v>
       </c>
       <c r="H32">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>123</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="6">
         <f>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</f>
         <v>43.05</v>
       </c>
@@ -4474,7 +4548,7 @@
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="3">
+      <c r="I33" s="6">
         <f>SUM(Tableau1[Revenue])</f>
         <v>2138</v>
       </c>
@@ -4491,4 +4565,481 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="32.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3">
+        <v>78.870967741935488</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3">
+        <v>109.16129032258064</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.35806451612903217</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="3">
+        <v>196.93548387096774</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.73578563890370041</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3.5599615722806837</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2.0359243256732815E-2</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="3">
+        <v>8.661984113499523</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3">
+        <v>80</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3">
+        <v>108</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3">
+        <v>82</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3">
+        <v>90</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4.0966810589701419</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3">
+        <v>19.821027175188721</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.11335546905902438</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="3">
+        <v>48.227886458542436</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3">
+        <v>16.782795698924723</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="3">
+        <v>392.87311827956972</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1.2849462365591435E-2</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="3">
+        <v>2325.9290322580609</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3">
+        <v>-0.13428863746643094</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-8.1939331901566437E-2</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="3">
+        <v>-1.7531353156375418</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="3">
+        <v>-0.32390101912181457</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3">
+        <v>-0.91163462314131105</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.30615488579246747</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.33716585048405046</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.36227744053700056</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="3">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="3">
+        <v>90</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3">
+        <v>70</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="3">
+        <v>68</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="3">
+        <v>84</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="3">
+        <v>158</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2445</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="3">
+        <v>3384</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="3">
+        <v>11.099999999999998</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="3">
+        <v>6105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="4">
+        <v>31</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="4">
+        <v>31</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="4">
+        <v>31</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="4">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.28720914844232076</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3">
+        <v>-3.3574567075296491E-2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3.2040478806507691E-2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.46661641888188637</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.84390480363353071</v>
+      </c>
+      <c r="D5" s="4">
+        <v>-0.29257237534797398</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/lemonade_analysis.xlsx
+++ b/lemonade_analysis.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950"/>
   </bookViews>
   <sheets>
-    <sheet name="Dataset" sheetId="1" r:id="rId1"/>
-    <sheet name="Descriptive stats" sheetId="3" r:id="rId2"/>
-    <sheet name="Correlation" sheetId="4" r:id="rId3"/>
+    <sheet name="Lemon VS Orange" sheetId="5" r:id="rId1"/>
+    <sheet name="Dataset" sheetId="1" r:id="rId2"/>
+    <sheet name="Descriptive stats" sheetId="3" r:id="rId3"/>
+    <sheet name="Correlation" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Dataset!$I$1</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
@@ -103,6 +104,39 @@
   </si>
   <si>
     <t>Nombre d'échantillons</t>
+  </si>
+  <si>
+    <t>Test d'égalité des espérances: deux observations de variances égales</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Variance pondérée</t>
+  </si>
+  <si>
+    <t>Différence hypothétique des moyennes</t>
+  </si>
+  <si>
+    <t>Degré de liberté</t>
+  </si>
+  <si>
+    <t>Statistique t</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) unilatéral</t>
+  </si>
+  <si>
+    <t>Valeur critique de t (unilatéral)</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) bilatéral</t>
+  </si>
+  <si>
+    <t>Valeur critique de t (bilatéral)</t>
   </si>
 </sst>
 </file>
@@ -3538,10 +3572,150 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="58.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6328125" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3">
+        <v>116.58064516129032</v>
+      </c>
+      <c r="C4" s="3">
+        <v>80.354838709677423</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="3">
+        <v>683.11827956989293</v>
+      </c>
+      <c r="C5" s="3">
+        <v>489.7698924731182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="3">
+        <v>31</v>
+      </c>
+      <c r="C6" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="3">
+        <v>586.44408602150554</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="3">
+        <v>60</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="3">
+        <v>5.8893939518238767</v>
+      </c>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="3">
+        <v>9.3931126296514368E-8</v>
+      </c>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1.6706488649046354</v>
+      </c>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1.8786225259302874E-7</v>
+      </c>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2.0002978220142609</v>
+      </c>
+      <c r="C14" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:H32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4567,7 +4741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
@@ -4958,11 +5132,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>

--- a/lemonade_analysis.xlsx
+++ b/lemonade_analysis.xlsx
@@ -12,15 +12,15 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950"/>
   </bookViews>
   <sheets>
-    <sheet name="Lemon VS Orange" sheetId="5" r:id="rId1"/>
+    <sheet name="Regression" sheetId="6" r:id="rId1"/>
     <sheet name="Dataset" sheetId="1" r:id="rId2"/>
     <sheet name="Descriptive stats" sheetId="3" r:id="rId3"/>
     <sheet name="Correlation" sheetId="4" r:id="rId4"/>
+    <sheet name="Lemon VS Orange" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Dataset!$I$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Dataset!$I$2:$I$32</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Dataset!$I$2:$I$32</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -138,6 +138,81 @@
   <si>
     <t>Valeur critique de t (bilatéral)</t>
   </si>
+  <si>
+    <t>RAPPORT DÉTAILLÉ</t>
+  </si>
+  <si>
+    <t>Statistiques de la régression</t>
+  </si>
+  <si>
+    <t>Coefficient de détermination multiple</t>
+  </si>
+  <si>
+    <t>Coefficient de détermination R^2</t>
+  </si>
+  <si>
+    <t>ANALYSE DE VARIANCE</t>
+  </si>
+  <si>
+    <t>Régression</t>
+  </si>
+  <si>
+    <t>Résidus</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Constante</t>
+  </si>
+  <si>
+    <t>Somme des carrés</t>
+  </si>
+  <si>
+    <t>Moyenne des carrés</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Valeur critique de F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>Probabilité</t>
+  </si>
+  <si>
+    <t>Limite inférieure pour seuil de confiance = 95%</t>
+  </si>
+  <si>
+    <t>Limite supérieure pour seuil de confiance = 95%</t>
+  </si>
+  <si>
+    <t>Limite inférieure pour seuil de confiance =  95,0%</t>
+  </si>
+  <si>
+    <t>Limite supérieure pour seuil de confiance =  95,0%</t>
+  </si>
+  <si>
+    <t>ANALYSE DES RÉSIDUS</t>
+  </si>
+  <si>
+    <t>Observation</t>
+  </si>
+  <si>
+    <t>Prévisions Sales</t>
+  </si>
+  <si>
+    <t>Résidus normalisés</t>
+  </si>
+  <si>
+    <t>Leaflet</t>
+  </si>
+  <si>
+    <t>Sales Prediction</t>
+  </si>
 </sst>
 </file>
 
@@ -203,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -213,14 +288,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
     </dxf>
@@ -228,17 +304,28 @@
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -251,10 +338,14 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -270,6 +361,2775 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Temperature Graphique des résidus</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Dataset!$E$2:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Regression!$C$27:$C$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>13.550167239951747</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1362128074642612</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0073333759294201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.973528715187257</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.636238856427894</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-10.933559354973085</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-22.484692792303349</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-18.021038133466476</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-17.526093445344856</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-23.524282394896034</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.101352775209193</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.400864081824665</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.6502954044692046</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-9.193129268491532</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-5.5050817104799989</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.7051397671933159</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-14.4222804043971</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.417198344278972</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23.789752123725009</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-40.887042532674116</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3.4157918815378707</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.9600322083012998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.001432861342721</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.294455645099049</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27.377256951182005</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.2070265536023612</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-9.5780744963138034</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-10.740406798086468</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-10.617664098906516</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-7.4887846673716751</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-4.5697749230058378</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A921-446E-86CD-5AB023C9EC73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="124093391"/>
+        <c:axId val="2073980431"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="124093391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Temperature</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2073980431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2073980431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Résidus</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="124093391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Leaflets Graphique des résidus</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Dataset!$F$2:$F$32</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Regression!$C$27:$C$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>13.550167239951747</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1362128074642612</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0073333759294201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.973528715187257</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.636238856427894</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-10.933559354973085</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-22.484692792303349</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-18.021038133466476</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-17.526093445344856</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-23.524282394896034</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.101352775209193</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.400864081824665</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.6502954044692046</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-9.193129268491532</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-5.5050817104799989</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.7051397671933159</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-14.4222804043971</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.417198344278972</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23.789752123725009</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-40.887042532674116</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3.4157918815378707</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.9600322083012998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.001432861342721</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.294455645099049</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27.377256951182005</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.2070265536023612</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-9.5780744963138034</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-10.740406798086468</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-10.617664098906516</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-7.4887846673716751</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-4.5697749230058378</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-CD3B-490B-B429-062D0A0BD4E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="124102959"/>
+        <c:axId val="2073964015"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="124102959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Leaflets</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2073964015"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2073964015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Résidus</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="124102959"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Price Graphique des résidus</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Dataset!$G$2:$G$32</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ##0.00\ "€"</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Regression!$C$27:$C$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>13.550167239951747</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1362128074642612</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0073333759294201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.973528715187257</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.636238856427894</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-10.933559354973085</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-22.484692792303349</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-18.021038133466476</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-17.526093445344856</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-23.524282394896034</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.101352775209193</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.400864081824665</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.6502954044692046</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-9.193129268491532</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-5.5050817104799989</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.7051397671933159</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-14.4222804043971</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.417198344278972</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23.789752123725009</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-40.887042532674116</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3.4157918815378707</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.9600322083012998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.001432861342721</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.294455645099049</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27.377256951182005</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.2070265536023612</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-9.5780744963138034</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-10.740406798086468</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-10.617664098906516</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-7.4887846673716751</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-4.5697749230058378</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A5D9-44D9-9F21-EAD27FEE2646}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="124095055"/>
+        <c:axId val="2073979567"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="124095055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Price</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#\ ##0.00\ &quot;€&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2073979567"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2073979567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Résidus</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="124095055"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Temperature Courbe de régression</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Sales</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Dataset!$E$2:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Dataset!$H$2:$H$32</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>123</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3409-4333-9771-6738990EAE56}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Prévisions Sales</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Dataset!$E$2:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Regression!$B$27:$B$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>150.44983276004825</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>155.86378719253574</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>179.99266662407058</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>182.02647128481274</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>258.36376114357211</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>182.93355935497308</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>266.48469279230335</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>227.02103813346648</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>246.52609344534486</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>261.52428239489603</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>271.89864722479081</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>205.59913591817534</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>186.6502954044692</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>216.19312926849153</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>165.50508171048</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>128.29486023280668</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>205.4222804043971</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>208.58280165572103</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>183.21024787627499</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>153.88704253267412</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>136.41579188153787</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>179.0399677916987</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>198.99856713865728</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>201.70554435490095</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>241.62274304881799</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>302.79297344639764</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>181.5780744963138</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>169.74040679808647</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>176.61766409890652</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>152.48878466737168</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>127.56977492300584</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-3409-4333-9771-6738990EAE56}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="124100879"/>
+        <c:axId val="124058607"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="124100879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Temperature</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="124058607"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="124058607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Sales</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="124100879"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Leaflets Courbe de régression</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Sales</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Dataset!$F$2:$F$32</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Dataset!$H$2:$H$32</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>123</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-DA12-4D64-8979-5523A4DBF870}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Prévisions Sales</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Dataset!$F$2:$F$32</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Regression!$B$27:$B$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>150.44983276004825</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>155.86378719253574</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>179.99266662407058</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>182.02647128481274</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>258.36376114357211</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>182.93355935497308</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>266.48469279230335</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>227.02103813346648</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>246.52609344534486</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>261.52428239489603</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>271.89864722479081</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>205.59913591817534</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>186.6502954044692</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>216.19312926849153</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>165.50508171048</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>128.29486023280668</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>205.4222804043971</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>208.58280165572103</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>183.21024787627499</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>153.88704253267412</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>136.41579188153787</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>179.0399677916987</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>198.99856713865728</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>201.70554435490095</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>241.62274304881799</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>302.79297344639764</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>181.5780744963138</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>169.74040679808647</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>176.61766409890652</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>152.48878466737168</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>127.56977492300584</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-DA12-4D64-8979-5523A4DBF870}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="124105455"/>
+        <c:axId val="124052991"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="124105455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Leaflets</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="124052991"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="124052991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Sales</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="124105455"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Price Courbe de régression</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Sales</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Dataset!$G$2:$G$32</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ##0.00\ "€"</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Dataset!$H$2:$H$32</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>123</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-44BF-4BA9-BED4-5BD5CFD965AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Prévisions Sales</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Dataset!$G$2:$G$32</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ##0.00\ "€"</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Regression!$B$27:$B$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>150.44983276004825</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>155.86378719253574</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>179.99266662407058</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>182.02647128481274</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>258.36376114357211</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>182.93355935497308</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>266.48469279230335</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>227.02103813346648</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>246.52609344534486</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>261.52428239489603</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>271.89864722479081</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>205.59913591817534</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>186.6502954044692</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>216.19312926849153</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>165.50508171048</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>128.29486023280668</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>205.4222804043971</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>208.58280165572103</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>183.21024787627499</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>153.88704253267412</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>136.41579188153787</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>179.0399677916987</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>198.99856713865728</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>201.70554435490095</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>241.62274304881799</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>302.79297344639764</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>181.5780744963138</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>169.74040679808647</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>176.61766409890652</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>152.48878466737168</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>127.56977492300584</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-44BF-4BA9-BED4-5BD5CFD965AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="124109199"/>
+        <c:axId val="124057743"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="124109199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Price</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#\ ##0.00\ &quot;€&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="124057743"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="124057743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Sales</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="124109199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -764,7 +3624,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -879,7 +3739,7 @@
             <c:numRef>
               <c:f>Dataset!$F$2:$F$33</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>90</c:v>
@@ -981,7 +3841,7 @@
             <c:numRef>
               <c:f>Dataset!$H$2:$H$33</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>164</c:v>
@@ -1173,7 +4033,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1290,7 +4150,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3102,6 +5962,227 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7BC8F4D-0B6A-4174-BF68-85639FB5A970}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{994A7585-81CE-4FBD-97E8-097F32167650}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graphique 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C81C4648-4E92-487A-9CC9-29B77518ED96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Graphique 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54B3ECC8-0490-4AC1-BF85-B7875C10E3E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Graphique 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8480BAE-3F03-4D64-885A-8724B124F5DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Graphique 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40CC7BA3-4EBF-490D-B2FB-7913ADCC9FCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>288925</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>15875</xdr:rowOff>
@@ -3256,17 +6337,17 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:I33" totalsRowCount="1">
   <autoFilter ref="A1:I32"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Date" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="1" name="Date" dataDxfId="9" totalsRowDxfId="8"/>
     <tableColumn id="2" name="Location"/>
-    <tableColumn id="3" name="Lemon"/>
-    <tableColumn id="4" name="Orange"/>
-    <tableColumn id="5" name="Temperature"/>
-    <tableColumn id="6" name="Leaflets"/>
-    <tableColumn id="7" name="Price" dataDxfId="1"/>
-    <tableColumn id="8" name="Sales" dataDxfId="0">
+    <tableColumn id="3" name="Lemon" dataDxfId="7"/>
+    <tableColumn id="4" name="Orange" dataDxfId="6"/>
+    <tableColumn id="5" name="Temperature" dataDxfId="5"/>
+    <tableColumn id="6" name="Leaflets" dataDxfId="4"/>
+    <tableColumn id="7" name="Price" dataDxfId="3"/>
+    <tableColumn id="8" name="Sales" dataDxfId="2">
       <calculatedColumnFormula>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Revenue" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
+    <tableColumn id="9" name="Revenue" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula>Tableau1[[#This Row],[Sales]]*Tableau1[[#This Row],[Price]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(Tableau1[Revenue])</totalsRowFormula>
     </tableColumn>
@@ -3572,141 +6653,787 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="58.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6328125" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.1796875" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D2">
+        <v>80</v>
+      </c>
+      <c r="E2">
+        <v>110</v>
+      </c>
+      <c r="F2">
+        <v>0.35</v>
+      </c>
+      <c r="G2">
+        <f>$B$17+D2*$B$18+E2*$B$19+F2*$B$20</f>
+        <v>202.66339043385412</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="D3">
+        <v>80</v>
+      </c>
+      <c r="E3">
+        <v>120</v>
+      </c>
+      <c r="F3">
+        <v>0.35</v>
+      </c>
+      <c r="G3">
+        <f>$B$17+D3*$B$18+E3*$B$19+F3*$B$20</f>
+        <v>221.83185946798167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.92889549840613961</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.86284684695919056</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.84760760773243404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3">
+        <v>18.826945834903523</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="3">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3">
+        <v>60207.615952041378</v>
+      </c>
+      <c r="D12" s="3">
+        <v>20069.205317347125</v>
+      </c>
+      <c r="E12" s="3">
+        <v>56.620073621800621</v>
+      </c>
+      <c r="F12" s="3">
+        <v>8.9537088401801261E-12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="3">
+        <v>27</v>
+      </c>
+      <c r="C13" s="3">
+        <v>9570.2550157005608</v>
+      </c>
+      <c r="D13" s="3">
+        <v>354.45388947039112</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="4">
+        <v>30</v>
+      </c>
+      <c r="C14" s="4">
+        <v>69777.870967741939</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="3">
+        <v>-178.5719122919447</v>
+      </c>
+      <c r="C17" s="3">
+        <v>67.54600401460533</v>
+      </c>
+      <c r="D17" s="3">
+        <v>-2.6437080164406539</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1.3489598129996007E-2</v>
+      </c>
+      <c r="F17" s="3">
+        <v>-317.16486459541181</v>
+      </c>
+      <c r="G17" s="3">
+        <v>-39.978959988477584</v>
+      </c>
+      <c r="H17" s="3">
+        <v>-317.16486459541181</v>
+      </c>
+      <c r="I17" s="3">
+        <v>-39.978959988477584</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2.7069772162437351</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.87683005197432395</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3.0872313399256108</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4.6344905855262384E-3</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.90787055783582216</v>
+      </c>
+      <c r="G18" s="3">
+        <v>4.5060838746516483</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.90787055783582216</v>
+      </c>
+      <c r="I18" s="3">
+        <v>4.5060838746516483</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1.9168469034127558</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.18121725251819235</v>
+      </c>
+      <c r="D19" s="3">
+        <v>10.577618172532022</v>
+      </c>
+      <c r="E19" s="3">
+        <v>4.1990741131338261E-11</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1.5450198145832148</v>
+      </c>
+      <c r="G19" s="3">
+        <v>2.288673992242297</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1.5450198145832148</v>
+      </c>
+      <c r="I19" s="3">
+        <v>2.288673992242297</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="4">
+        <v>-131.93152556886608</v>
+      </c>
+      <c r="C20" s="4">
+        <v>30.369228222299359</v>
+      </c>
+      <c r="D20" s="4">
+        <v>-4.3442501930948669</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1.7707654814866746E-4</v>
+      </c>
+      <c r="F20" s="4">
+        <v>-194.24403479733425</v>
+      </c>
+      <c r="G20" s="4">
+        <v>-69.619016340397906</v>
+      </c>
+      <c r="H20" s="4">
+        <v>-194.24403479733425</v>
+      </c>
+      <c r="I20" s="4">
+        <v>-69.619016340397906</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
+        <v>1</v>
+      </c>
+      <c r="B27" s="3">
+        <v>150.44983276004825</v>
+      </c>
+      <c r="C27" s="3">
+        <v>13.550167239951747</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.75865360797582249</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
+        <v>2</v>
+      </c>
+      <c r="B28" s="3">
+        <v>155.86378719253574</v>
+      </c>
+      <c r="C28" s="3">
+        <v>9.1362128074642612</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.51152289760538494</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
+        <v>3</v>
+      </c>
+      <c r="B29" s="3">
+        <v>179.99266662407058</v>
+      </c>
+      <c r="C29" s="3">
+        <v>7.0073333759294201</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.39233012063969075</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
+        <v>4</v>
+      </c>
+      <c r="B30" s="3">
+        <v>182.02647128481274</v>
+      </c>
+      <c r="C30" s="3">
+        <v>50.973528715187257</v>
+      </c>
+      <c r="D30" s="3">
+        <v>2.8539316737742131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
+        <v>5</v>
+      </c>
+      <c r="B31" s="3">
+        <v>258.36376114357211</v>
+      </c>
+      <c r="C31" s="3">
+        <v>18.636238856427894</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1.0434151547474617</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="3">
+        <v>6</v>
+      </c>
+      <c r="B32" s="3">
+        <v>182.93355935497308</v>
+      </c>
+      <c r="C32" s="3">
+        <v>-10.933559354973085</v>
+      </c>
+      <c r="D32" s="3">
+        <v>-0.6121536439942622</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="3">
+        <v>7</v>
+      </c>
+      <c r="B33" s="3">
+        <v>266.48469279230335</v>
+      </c>
+      <c r="C33" s="3">
+        <v>-22.484692792303349</v>
+      </c>
+      <c r="D33" s="3">
+        <v>-1.2588843376644294</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="3">
+        <v>8</v>
+      </c>
+      <c r="B34" s="3">
+        <v>227.02103813346648</v>
+      </c>
+      <c r="C34" s="3">
+        <v>-18.021038133466476</v>
+      </c>
+      <c r="D34" s="3">
+        <v>-1.0089709859162526</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="3">
+        <v>9</v>
+      </c>
+      <c r="B35" s="3">
+        <v>246.52609344534486</v>
+      </c>
+      <c r="C35" s="3">
+        <v>-17.526093445344856</v>
+      </c>
+      <c r="D35" s="3">
+        <v>-0.98125977270813636</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="3">
+        <v>10</v>
+      </c>
+      <c r="B36" s="3">
+        <v>261.52428239489603</v>
+      </c>
+      <c r="C36" s="3">
+        <v>-23.524282394896034</v>
+      </c>
+      <c r="D36" s="3">
+        <v>-1.3170894054584046</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="3">
+        <v>11</v>
+      </c>
+      <c r="B37" s="3">
+        <v>271.89864722479081</v>
+      </c>
+      <c r="C37" s="3">
+        <v>10.101352775209193</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0.56555964163703787</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="3">
+        <v>12</v>
+      </c>
+      <c r="B38" s="3">
+        <v>205.59913591817534</v>
+      </c>
+      <c r="C38" s="3">
+        <v>19.400864081824665</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1.0862253780992623</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="3">
+        <v>13</v>
+      </c>
+      <c r="B39" s="3">
+        <v>186.6502954044692</v>
+      </c>
+      <c r="C39" s="3">
+        <v>-2.6502954044692046</v>
+      </c>
+      <c r="D39" s="3">
+        <v>-0.14838607783924768</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="3">
+        <v>14</v>
+      </c>
+      <c r="B40" s="3">
+        <v>216.19312926849153</v>
+      </c>
+      <c r="C40" s="3">
+        <v>-9.193129268491532</v>
+      </c>
+      <c r="D40" s="3">
+        <v>-0.51470956517537936</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="3">
+        <v>15</v>
+      </c>
+      <c r="B41" s="3">
+        <v>165.50508171048</v>
+      </c>
+      <c r="C41" s="3">
+        <v>-5.5050817104799989</v>
+      </c>
+      <c r="D41" s="3">
+        <v>-0.3082212955677317</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="3">
+        <v>16</v>
+      </c>
+      <c r="B42" s="3">
+        <v>128.29486023280668</v>
+      </c>
+      <c r="C42" s="3">
+        <v>2.7051397671933159</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0.15145673172277346</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="3">
+        <v>17</v>
+      </c>
+      <c r="B43" s="3">
+        <v>205.4222804043971</v>
+      </c>
+      <c r="C43" s="3">
+        <v>-14.4222804043971</v>
+      </c>
+      <c r="D43" s="3">
+        <v>-0.80748192035405653</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="3">
+        <v>18</v>
+      </c>
+      <c r="B44" s="3">
+        <v>208.58280165572103</v>
+      </c>
+      <c r="C44" s="3">
+        <v>14.417198344278972</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0.80719738340508074</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="3">
+        <v>19</v>
+      </c>
+      <c r="B45" s="3">
+        <v>183.21024787627499</v>
+      </c>
+      <c r="C45" s="3">
+        <v>23.789752123725009</v>
+      </c>
+      <c r="D45" s="3">
+        <v>1.3319526587318145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="3">
+        <v>20</v>
+      </c>
+      <c r="B46" s="3">
+        <v>153.88704253267412</v>
+      </c>
+      <c r="C46" s="3">
+        <v>-40.887042532674116</v>
+      </c>
+      <c r="D46" s="3">
+        <v>-2.2892043904385484</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="3">
+        <v>21</v>
+      </c>
+      <c r="B47" s="3">
+        <v>136.41579188153787</v>
+      </c>
+      <c r="C47" s="3">
+        <v>-3.4157918815378707</v>
+      </c>
+      <c r="D47" s="3">
+        <v>-0.19124508126974651</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="3">
+        <v>22</v>
+      </c>
+      <c r="B48" s="3">
+        <v>179.0399677916987</v>
+      </c>
+      <c r="C48" s="3">
+        <v>7.9600322083012998</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0.44567030409973296</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="3">
+        <v>23</v>
+      </c>
+      <c r="B49" s="3">
+        <v>198.99856713865728</v>
+      </c>
+      <c r="C49" s="3">
+        <v>3.001432861342721</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0.16804573914343512</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="3">
-        <v>116.58064516129032</v>
-      </c>
-      <c r="C4" s="3">
-        <v>80.354838709677423</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="B50" s="3">
+        <v>201.70554435490095</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1.294455645099049</v>
+      </c>
+      <c r="D50" s="3">
+        <v>7.2474636521354205E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="3">
         <v>25</v>
       </c>
-      <c r="B5" s="3">
-        <v>683.11827956989293</v>
-      </c>
-      <c r="C5" s="3">
-        <v>489.7698924731182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="B51" s="3">
+        <v>241.62274304881799</v>
+      </c>
+      <c r="C51" s="3">
+        <v>27.377256951182005</v>
+      </c>
+      <c r="D51" s="3">
+        <v>1.5328116911544005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="3">
         <v>26</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B52" s="3">
+        <v>302.79297344639764</v>
+      </c>
+      <c r="C52" s="3">
+        <v>2.2070265536023612</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0.12356811751017463</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="3">
+        <v>27</v>
+      </c>
+      <c r="B53" s="3">
+        <v>181.5780744963138</v>
+      </c>
+      <c r="C53" s="3">
+        <v>-9.5780744963138034</v>
+      </c>
+      <c r="D53" s="3">
+        <v>-0.53626207303663886</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="3">
+        <v>28</v>
+      </c>
+      <c r="B54" s="3">
+        <v>169.74040679808647</v>
+      </c>
+      <c r="C54" s="3">
+        <v>-10.740406798086468</v>
+      </c>
+      <c r="D54" s="3">
+        <v>-0.60133932107286414</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="3">
+        <v>29</v>
+      </c>
+      <c r="B55" s="3">
+        <v>176.61766409890652</v>
+      </c>
+      <c r="C55" s="3">
+        <v>-10.617664098906516</v>
+      </c>
+      <c r="D55" s="3">
+        <v>-0.59446714083061547</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="3">
+        <v>30</v>
+      </c>
+      <c r="B56" s="3">
+        <v>152.48878466737168</v>
+      </c>
+      <c r="C56" s="3">
+        <v>-7.4887846673716751</v>
+      </c>
+      <c r="D56" s="3">
+        <v>-0.41928585873865365</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="4">
         <v>31</v>
       </c>
-      <c r="C6" s="3">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="3">
-        <v>586.44408602150554</v>
-      </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="3">
-        <v>60</v>
-      </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="3">
-        <v>5.8893939518238767</v>
-      </c>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="3">
-        <v>9.3931126296514368E-8</v>
-      </c>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1.6706488649046354</v>
-      </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1.8786225259302874E-7</v>
-      </c>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="4">
-        <v>2.0002978220142609</v>
-      </c>
-      <c r="C14" s="4"/>
+      <c r="B57" s="4">
+        <v>127.56977492300584</v>
+      </c>
+      <c r="C57" s="4">
+        <v>-4.5697749230058378</v>
+      </c>
+      <c r="D57" s="4">
+        <v>-0.25585486670260171</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3714,8 +7441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="G33" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3765,22 +7492,22 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="7">
         <v>97</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="7">
         <v>67</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="7">
         <v>70</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="7">
         <v>90</v>
       </c>
       <c r="G2" s="6">
         <v>0.25</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="7">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>164</v>
       </c>
@@ -3796,22 +7523,22 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="7">
         <v>98</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="7">
         <v>67</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="7">
         <v>72</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="7">
         <v>90</v>
       </c>
       <c r="G3" s="6">
         <v>0.25</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="7">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>165</v>
       </c>
@@ -3827,22 +7554,22 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="7">
         <v>110</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="7">
         <v>77</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="7">
         <v>71</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="7">
         <v>104</v>
       </c>
       <c r="G4" s="6">
         <v>0.25</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="7">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>187</v>
       </c>
@@ -3858,22 +7585,22 @@
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="7">
         <v>134</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="7">
         <v>99</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="7">
         <v>76</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="7">
         <v>98</v>
       </c>
       <c r="G5" s="6">
         <v>0.25</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="7">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>233</v>
       </c>
@@ -3889,22 +7616,22 @@
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="7">
         <v>159</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="7">
         <v>118</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="7">
         <v>78</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="7">
         <v>135</v>
       </c>
       <c r="G6" s="6">
         <v>0.25</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="7">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>277</v>
       </c>
@@ -3920,22 +7647,22 @@
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="7">
         <v>103</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="7">
         <v>69</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="7">
         <v>82</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="7">
         <v>90</v>
       </c>
       <c r="G7" s="6">
         <v>0.25</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="7">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>172</v>
       </c>
@@ -3951,22 +7678,22 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="7">
         <v>143</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="7">
         <v>101</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="7">
         <v>81</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="7">
         <v>135</v>
       </c>
       <c r="G8" s="6">
         <v>0.25</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="7">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>244</v>
       </c>
@@ -3982,22 +7709,22 @@
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="7">
         <v>123</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="7">
         <v>86</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="7">
         <v>82</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="7">
         <v>113</v>
       </c>
       <c r="G9" s="6">
         <v>0.25</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="7">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>209</v>
       </c>
@@ -4013,22 +7740,22 @@
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="7">
         <v>134</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="7">
         <v>95</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="7">
         <v>80</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="7">
         <v>126</v>
       </c>
       <c r="G10" s="6">
         <v>0.25</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="7">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>229</v>
       </c>
@@ -4044,22 +7771,22 @@
       <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="7">
         <v>140</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="7">
         <v>98</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="7">
         <v>82</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="7">
         <v>131</v>
       </c>
       <c r="G11" s="6">
         <v>0.25</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="7">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>238</v>
       </c>
@@ -4075,22 +7802,22 @@
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="7">
         <v>162</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="7">
         <v>120</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="7">
         <v>83</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="7">
         <v>135</v>
       </c>
       <c r="G12" s="6">
         <v>0.25</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="7">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>282</v>
       </c>
@@ -4106,22 +7833,22 @@
       <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="7">
         <v>130</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="7">
         <v>95</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="7">
         <v>84</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="7">
         <v>99</v>
       </c>
       <c r="G13" s="6">
         <v>0.25</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="7">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>225</v>
       </c>
@@ -4137,22 +7864,22 @@
       <c r="B14" t="s">
         <v>8</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="7">
         <v>109</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="7">
         <v>75</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="7">
         <v>77</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="7">
         <v>99</v>
       </c>
       <c r="G14" s="6">
         <v>0.25</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="7">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>184</v>
       </c>
@@ -4168,22 +7895,22 @@
       <c r="B15" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="7">
         <v>122</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="7">
         <v>85</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="7">
         <v>78</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="7">
         <v>113</v>
       </c>
       <c r="G15" s="6">
         <v>0.25</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="7">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>207</v>
       </c>
@@ -4199,22 +7926,22 @@
       <c r="B16" t="s">
         <v>8</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="7">
         <v>98</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="7">
         <v>62</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="7">
         <v>75</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="7">
         <v>108</v>
       </c>
       <c r="G16" s="6">
         <v>0.5</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="7">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>160</v>
       </c>
@@ -4230,22 +7957,22 @@
       <c r="B17" t="s">
         <v>8</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="7">
         <v>81</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="7">
         <v>50</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="7">
         <v>74</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="7">
         <v>90</v>
       </c>
       <c r="G17" s="6">
         <v>0.5</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="7">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>131</v>
       </c>
@@ -4261,22 +7988,22 @@
       <c r="B18" t="s">
         <v>8</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="7">
         <v>115</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="7">
         <v>76</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="7">
         <v>77</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="7">
         <v>126</v>
       </c>
       <c r="G18" s="6">
         <v>0.5</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="7">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>191</v>
       </c>
@@ -4292,22 +8019,22 @@
       <c r="B19" t="s">
         <v>7</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="7">
         <v>131</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="7">
         <v>92</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="7">
         <v>81</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="7">
         <v>122</v>
       </c>
       <c r="G19" s="6">
         <v>0.5</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="7">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>223</v>
       </c>
@@ -4323,22 +8050,22 @@
       <c r="B20" t="s">
         <v>7</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="7">
         <v>122</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="7">
         <v>85</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="7">
         <v>78</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="7">
         <v>113</v>
       </c>
       <c r="G20" s="6">
         <v>0.5</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="7">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>207</v>
       </c>
@@ -4354,22 +8081,22 @@
       <c r="B21" t="s">
         <v>7</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="7">
         <v>71</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="7">
         <v>42</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="7">
         <v>70</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="7">
         <v>109</v>
       </c>
       <c r="G21" s="6">
         <v>0.5</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="7">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>113</v>
       </c>
@@ -4385,22 +8112,22 @@
       <c r="B22" t="s">
         <v>7</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="7">
         <v>83</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="7">
         <v>50</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="7">
         <v>77</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="7">
         <v>90</v>
       </c>
       <c r="G22" s="6">
         <v>0.5</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="7">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>133</v>
       </c>
@@ -4416,22 +8143,22 @@
       <c r="B23" t="s">
         <v>7</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="7">
         <v>112</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="7">
         <v>75</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="7">
         <v>80</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="7">
         <v>108</v>
       </c>
       <c r="G23" s="6">
         <v>0.5</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="7">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>187</v>
       </c>
@@ -4447,22 +8174,22 @@
       <c r="B24" t="s">
         <v>7</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="7">
         <v>120</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="7">
         <v>82</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="7">
         <v>81</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="7">
         <v>117</v>
       </c>
       <c r="G24" s="6">
         <v>0.5</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="7">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>202</v>
       </c>
@@ -4478,22 +8205,22 @@
       <c r="B25" t="s">
         <v>7</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="7">
         <v>121</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="7">
         <v>82</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="7">
         <v>82</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="7">
         <v>117</v>
       </c>
       <c r="G25" s="6">
         <v>0.5</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="7">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>203</v>
       </c>
@@ -4509,22 +8236,22 @@
       <c r="B26" t="s">
         <v>7</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="7">
         <v>156</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="7">
         <v>113</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="7">
         <v>84</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="7">
         <v>135</v>
       </c>
       <c r="G26" s="6">
         <v>0.5</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="7">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>269</v>
       </c>
@@ -4540,22 +8267,22 @@
       <c r="B27" t="s">
         <v>7</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="7">
         <v>176</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="7">
         <v>129</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="7">
         <v>83</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="7">
         <v>158</v>
       </c>
       <c r="G27" s="6">
         <v>0.35</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="7">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>305</v>
       </c>
@@ -4571,22 +8298,22 @@
       <c r="B28" t="s">
         <v>7</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="7">
         <v>104</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="7">
         <v>68</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="7">
         <v>80</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="7">
         <v>99</v>
       </c>
       <c r="G28" s="6">
         <v>0.35</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="7">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>172</v>
       </c>
@@ -4602,22 +8329,22 @@
       <c r="B29" t="s">
         <v>7</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="7">
         <v>96</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="7">
         <v>63</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="7">
         <v>82</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="7">
         <v>90</v>
       </c>
       <c r="G29" s="6">
         <v>0.35</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="7">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>159</v>
       </c>
@@ -4633,22 +8360,22 @@
       <c r="B30" t="s">
         <v>7</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="7">
         <v>100</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="7">
         <v>66</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="7">
         <v>81</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="7">
         <v>95</v>
       </c>
       <c r="G30" s="6">
         <v>0.35</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="7">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>166</v>
       </c>
@@ -4664,22 +8391,22 @@
       <c r="B31" t="s">
         <v>8</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="7">
         <v>88</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="7">
         <v>57</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="7">
         <v>82</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="7">
         <v>81</v>
       </c>
       <c r="G31" s="6">
         <v>0.35</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="7">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>145</v>
       </c>
@@ -4695,22 +8422,22 @@
       <c r="B32" t="s">
         <v>8</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="7">
         <v>76</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="7">
         <v>47</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="7">
         <v>82</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="7">
         <v>68</v>
       </c>
       <c r="G32" s="6">
         <v>0.35</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="7">
         <f>SUM(Tableau1[[#This Row],[Lemon]],Tableau1[[#This Row],[Orange]])</f>
         <v>123</v>
       </c>
@@ -4729,8 +8456,8 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E32">
-    <cfRule type="top10" dxfId="4" priority="2" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="5" priority="1" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="11" priority="2" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="10" priority="1" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5137,7 +8864,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5216,4 +8943,144 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="58.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6328125" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3">
+        <v>116.58064516129032</v>
+      </c>
+      <c r="C4" s="3">
+        <v>80.354838709677423</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="3">
+        <v>683.11827956989293</v>
+      </c>
+      <c r="C5" s="3">
+        <v>489.7698924731182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="3">
+        <v>31</v>
+      </c>
+      <c r="C6" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="3">
+        <v>586.44408602150554</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="3">
+        <v>60</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="3">
+        <v>5.8893939518238767</v>
+      </c>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="3">
+        <v>9.3931126296514368E-8</v>
+      </c>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1.6706488649046354</v>
+      </c>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1.8786225259302874E-7</v>
+      </c>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2.0002978220142609</v>
+      </c>
+      <c r="C14" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>